--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1669450.522377325</v>
+        <v>1762744.98527224</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797147</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5738382.537414394</v>
+        <v>6173712.322428568</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>54.81047169401717</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>102.7176563887149</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>137.8834167598883</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>43.70143389869411</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>63.91879806533807</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -908,7 +910,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.97715937730158</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>39.57637241135509</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1136,13 +1138,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>243.8418820985349</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>44.69616728427791</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1291,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>122.6391170798909</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,10 +1302,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1339,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>192.0192677469487</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1385,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>247.7868469212788</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1534,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>7.264602967362454</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1613,19 +1615,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>215.3821362116111</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>145.4261460119205</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>129.7139627068455</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2014,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2093,13 +2095,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2245,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117663</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170816</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2302,10 +2304,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>219.5141406214763</v>
       </c>
     </row>
     <row r="23">
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998732</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2953,22 +2955,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>83.71046610478319</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170566</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3199,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>29.10461178738937</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3436,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3518,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3661,13 +3663,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>86.48613679462045</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117663</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998958</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3746,16 +3748,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>353.5209129993538</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>213.7984441674444</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3803,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3901,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>3.423392126084805</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3910,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>24.34318456170487</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3977,16 +3979,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>38.08038463762507</v>
+        <v>145.4261460119205</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>240.9739924675</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>648.8602641703436</v>
+        <v>1382.412671899186</v>
       </c>
       <c r="C2" t="n">
-        <v>210.7177913537669</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D2" t="n">
-        <v>106.9625828803175</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E2" t="n">
-        <v>77.22824207901677</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
         <v>53.40121652862856</v>
@@ -4340,7 +4342,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
@@ -4364,16 +4366,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2307.443876365254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>1902.588421776288</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X2" t="n">
-        <v>1483.445958355598</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y2" t="n">
-        <v>1075.159834655251</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>1351.309055163234</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O3" t="n">
-        <v>1351.309055163234</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348371</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363599</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>358.8946658124264</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2190.493479979994</v>
+        <v>1415.517618276922</v>
       </c>
       <c r="C5" t="n">
-        <v>1752.351007163417</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.441222337862</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>882.6664774961569</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
         <v>53.40121652862856</v>
@@ -4577,7 +4579,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4604,13 +4606,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>2654.14371650258</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>2616.793050464902</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="M6" t="n">
-        <v>714.2412710704069</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="N6" t="n">
-        <v>714.2412710704069</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="O6" t="n">
-        <v>714.2412710704069</v>
+        <v>1667.661119494397</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>2328.501174036176</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>233.2795245870976</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>233.2795245870976</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>233.2795245870976</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>93.37735027747209</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.512437976118</v>
+        <v>791.4099871095558</v>
       </c>
       <c r="C8" t="n">
-        <v>1351.369965159541</v>
+        <v>353.2675142929791</v>
       </c>
       <c r="D8" t="n">
-        <v>915.4601803339856</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4814,7 +4816,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X8" t="n">
-        <v>2624.098132161372</v>
+        <v>1625.99568129481</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.812008461025</v>
+        <v>1217.709557594464</v>
       </c>
     </row>
     <row r="9">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>617.5993366113188</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>451.7213438128414</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>281.9633400635787</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2193.218663108143</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1755.076190291566</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1319.166405466011</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>885.391660624306</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>457.5242310335137</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M11" t="n">
-        <v>56.12639965677763</v>
+        <v>1038.631590390883</v>
       </c>
       <c r="N11" t="n">
-        <v>750.6905954094008</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
-        <v>1445.254791162024</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V11" t="n">
-        <v>2806.319982838882</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W11" t="n">
-        <v>2806.319982838882</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X11" t="n">
-        <v>2387.177519418192</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2387.177519418192</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N12" t="n">
-        <v>366.890248656548</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="O12" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>906.6224367337088</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C13" t="n">
-        <v>734.0607252169337</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D13" t="n">
-        <v>568.1827324184565</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E13" t="n">
-        <v>398.4247286691938</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
-        <v>221.71767463095</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2654.546840516893</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2408.667394095348</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>2130.234393348453</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>1843.278885218884</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.252480805175</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1325.860726138588</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.441055452696</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1147.736370643971</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>709.5938978273948</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>273.6841130018393</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>56.12639965677763</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677763</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M14" t="n">
-        <v>56.12639965677763</v>
+        <v>1038.631590390883</v>
       </c>
       <c r="N14" t="n">
-        <v>750.6905954094008</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V14" t="n">
-        <v>2806.319982838882</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W14" t="n">
-        <v>2401.464528249915</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X14" t="n">
-        <v>1982.322064829226</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1574.035941128879</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N15" t="n">
-        <v>56.12639965677763</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>366.890248656548</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>906.6224367337088</v>
+        <v>1075.290341150174</v>
       </c>
       <c r="C16" t="n">
-        <v>734.0607252169337</v>
+        <v>902.7286296333992</v>
       </c>
       <c r="D16" t="n">
-        <v>568.1827324184565</v>
+        <v>736.8506368349219</v>
       </c>
       <c r="E16" t="n">
-        <v>398.4247286691938</v>
+        <v>567.0926330856591</v>
       </c>
       <c r="F16" t="n">
-        <v>221.71767463095</v>
+        <v>390.3855790474154</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677763</v>
+        <v>224.794304073243</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2654.546840516893</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2408.667394095348</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2130.234393348453</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>1843.278885218884</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.252480805175</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="X16" t="n">
-        <v>1325.860726138588</v>
+        <v>1494.528630555053</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.441055452696</v>
+        <v>1267.108959869161</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5552,13 +5554,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5607,13 +5609,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1656.801388721157</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
         <v>306.1208027766299</v>
@@ -5838,16 +5840,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>210.9600532992111</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N21" t="n">
-        <v>210.9600532992111</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
         <v>1765.500601749588</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>3435.538389938438</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>3262.976678421663</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>3097.098685623185</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238801</v>
+        <v>2927.340681873923</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856364</v>
+        <v>2750.633627835679</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>3627.357008657425</v>
       </c>
     </row>
     <row r="23">
@@ -6002,13 +6004,13 @@
         <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="K24" t="n">
-        <v>287.8657185439749</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="L24" t="n">
-        <v>287.8657185439749</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="M24" t="n">
-        <v>287.8657185439749</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="N24" t="n">
-        <v>287.8657185439749</v>
+        <v>4709.693196780938</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>4709.693196780938</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>4709.693196780938</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6226,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>2412.031452783383</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O26" t="n">
         <v>3569.079287993933</v>
@@ -6300,25 +6302,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856325</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="29">
@@ -6479,10 +6481,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,22 +6545,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>782.9943603411569</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1602.717526820355</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>3205.876241053795</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>3033.31452953702</v>
       </c>
       <c r="D31" t="n">
-        <v>617.7751448769883</v>
+        <v>2867.436536738543</v>
       </c>
       <c r="E31" t="n">
-        <v>533.2191185085204</v>
+        <v>2697.67853298928</v>
       </c>
       <c r="F31" t="n">
-        <v>356.5120644702766</v>
+        <v>2520.971478951036</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>4953.800644836978</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>4707.921198415434</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>4429.488197668539</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>4142.53268953897</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>3870.506285125261</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>3625.114530458674</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>3397.694859772782</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6786,16 +6788,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
         <v>1765.500601749588</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6938,22 +6940,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -7026,16 +7028,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.088111831086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O36" t="n">
-        <v>1336.088111831086</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,49 +7177,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>605.8694973157604</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1680.92946356862</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M38" t="n">
-        <v>2837.977298779171</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N38" t="n">
-        <v>3963.708282215618</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O38" t="n">
-        <v>4943.887948785924</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7263,10 +7265,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>287.8657185439749</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882657</v>
       </c>
       <c r="C40" t="n">
-        <v>702.9771222577831</v>
+        <v>1008.757289365882</v>
       </c>
       <c r="D40" t="n">
-        <v>702.9771222577831</v>
+        <v>842.8792965674048</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.363958244297</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497402</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367832</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954124</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.557290287536</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601644</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1287.687277984248</v>
+        <v>2447.237176554639</v>
       </c>
       <c r="C41" t="n">
-        <v>849.5448051676717</v>
+        <v>2009.094703738062</v>
       </c>
       <c r="D41" t="n">
-        <v>413.6350203421162</v>
+        <v>1573.184918912507</v>
       </c>
       <c r="E41" t="n">
-        <v>56.54318902963762</v>
+        <v>1139.410174070802</v>
       </c>
       <c r="F41" t="n">
-        <v>56.54318902963762</v>
+        <v>711.5427444800098</v>
       </c>
       <c r="G41" t="n">
-        <v>56.54318902963762</v>
+        <v>310.1449131032737</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5387406219836</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5387406219836</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>1396.102936374607</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>1396.102936374607</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.102936374607</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>2090.66713212723</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085825</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.668109022718</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.668109022718</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U41" t="n">
-        <v>2463.445806339735</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="V41" t="n">
-        <v>2100.828856273562</v>
+        <v>4105.820788749549</v>
       </c>
       <c r="W41" t="n">
-        <v>1695.973401684595</v>
+        <v>3700.965334160583</v>
       </c>
       <c r="X41" t="n">
-        <v>1695.973401684595</v>
+        <v>3281.822870739893</v>
       </c>
       <c r="Y41" t="n">
-        <v>1287.687277984248</v>
+        <v>2873.536747039547</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1649.251966351366</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>1542.795505188008</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>1447.705216334561</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>1353.584801661515</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>1270.200963277676</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>1184.81587354386</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>1143.080221360073</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>1169.14389452053</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>1169.14389452053</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>1169.14389452053</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L42" t="n">
-        <v>1169.14389452053</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M42" t="n">
-        <v>1169.14389452053</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N42" t="n">
-        <v>1863.708090273154</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.708090273154</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P42" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>2689.147204744542</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>2806.319982838882</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>2742.864545287265</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>2612.685901617866</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>2436.349354617835</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>2237.231836679834</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>2051.909082413028</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>1897.041646651908</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>1770.555867431129</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>765.6202370743899</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C43" t="n">
-        <v>593.0585255576149</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D43" t="n">
-        <v>427.1805327591376</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>257.4225290098748</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>80.71547497163104</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>80.71547497163104</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2513.544640857574</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.665194436029</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>1989.232193689134</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1702.276685559565</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.250281145856</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1184.858526479269</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>957.4388557933771</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>746.6543855902975</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>746.6543855902975</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>746.6543855902975</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>746.6543855902975</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>746.6543855902975</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>345.2565542135613</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K44" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L44" t="n">
-        <v>491.3810871096955</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5387406219836</v>
+        <v>2325.877900782264</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5387406219836</v>
+        <v>3451.608884218711</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374607</v>
+        <v>4431.788550789018</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.66713212723</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085825</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>2767.854947851381</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="U44" t="n">
-        <v>2767.854947851381</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V44" t="n">
-        <v>2405.237997785208</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W44" t="n">
-        <v>2000.382543196241</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X44" t="n">
-        <v>1581.240079775552</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1172.953956075205</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351366</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188008</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334561</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661515</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277676</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.81587354386</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360073</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.14389452053</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J45" t="n">
-        <v>1169.14389452053</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K45" t="n">
-        <v>1169.14389452053</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L45" t="n">
-        <v>1169.14389452053</v>
+        <v>279.3749775920493</v>
       </c>
       <c r="M45" t="n">
-        <v>1300.018813239295</v>
+        <v>279.3749775920493</v>
       </c>
       <c r="N45" t="n">
-        <v>1994.583008991919</v>
+        <v>279.3749775920493</v>
       </c>
       <c r="O45" t="n">
-        <v>2689.147204744542</v>
+        <v>279.3749775920493</v>
       </c>
       <c r="P45" t="n">
-        <v>2689.147204744542</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744542</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838882</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287265</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617866</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617835</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679834</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413028</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651908</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431129</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>906.6224367337088</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C46" t="n">
-        <v>734.0607252169337</v>
+        <v>911.6065991886354</v>
       </c>
       <c r="D46" t="n">
-        <v>568.1827324184565</v>
+        <v>745.7286063901581</v>
       </c>
       <c r="E46" t="n">
-        <v>398.4247286691938</v>
+        <v>575.9706026408953</v>
       </c>
       <c r="F46" t="n">
-        <v>221.71767463095</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G46" t="n">
-        <v>56.12639965677763</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2654.546840516893</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2408.667394095348</v>
+        <v>2307.780267320155</v>
       </c>
       <c r="U46" t="n">
-        <v>2130.234393348453</v>
+        <v>2307.780267320155</v>
       </c>
       <c r="V46" t="n">
-        <v>1843.278885218884</v>
+        <v>2020.824759190585</v>
       </c>
       <c r="W46" t="n">
-        <v>1571.252480805175</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="X46" t="n">
-        <v>1325.860726138588</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.441055452696</v>
+        <v>1275.986929424398</v>
       </c>
     </row>
   </sheetData>
@@ -7988,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O2" t="n">
         <v>585.1784344521124</v>
-      </c>
-      <c r="O2" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -8067,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>347.9676668794095</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P3" t="n">
         <v>667.515206607857</v>
@@ -8225,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O5" t="n">
         <v>585.1784344521124</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794094</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>345.0097498941946</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8462,10 +8464,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O8" t="n">
         <v>585.1784344521124</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8696,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097205</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>651.9316575406119</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8778,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>313.9028777775458</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8933,16 +8935,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>651.931657540612</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9015,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O15" t="n">
-        <v>313.9028777775458</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9255,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1015.482873487266</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>205.9191540463134</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9486,19 +9488,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>109.7971848772035</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9650,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>289.066705720913</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1050.672356668189</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>187.4796750234296</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10127,7 +10129,7 @@
         <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>-5.093094960597241e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10191,25 +10193,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10361,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10586,25 +10588,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>753.9218057523904</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10674,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10838,13 +10840,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10911,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11060,28 +11062,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>212.2804580932203</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11148,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>287.5759351912247</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>212.2804580932203</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>259.3095102562284</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11379,22 +11381,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>187.4796750234299</v>
       </c>
       <c r="M45" t="n">
-        <v>132.1968875947121</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>230.01730703311</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23314,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>111.2039336442329</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>214.0548611816767</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,10 +23551,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>111.2039336442328</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>8.789189859683773</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627224</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>5.631333357556542</v>
       </c>
     </row>
     <row r="23">
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>208.2197249473419</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>84.34995760698692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.592177662725</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>84.34995760698686</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>208.2197249473397</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>75.916084393934</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>72.44040884377151</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>160.7958207444077</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1599680048243</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25865,16 +25867,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>179.7861702180667</v>
+        <v>72.44040884377128</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,13 +26073,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.446659489829244</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>357432.0956804127</v>
+        <v>506423.2577632631</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>357432.0956804128</v>
+        <v>506423.257763263</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>540029.0237407861</v>
+        <v>540029.0237407862</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357432.0956804127</v>
+        <v>506423.2577632631</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357432.0956804127</v>
+        <v>506423.2577632632</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.806920546</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.806920546</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="E2" t="n">
-        <v>252817.8237739505</v>
+        <v>358201.8164666983</v>
       </c>
       <c r="F2" t="n">
-        <v>252817.8237739505</v>
+        <v>358201.8164666982</v>
       </c>
       <c r="G2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="H2" t="n">
         <v>381971.7484995804</v>
@@ -26341,7 +26343,7 @@
         <v>381971.7484995804</v>
       </c>
       <c r="L2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="M2" t="n">
         <v>381971.7484995804</v>
@@ -26350,10 +26352,10 @@
         <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
-        <v>252817.8237739505</v>
+        <v>358201.8164666982</v>
       </c>
       <c r="P2" t="n">
-        <v>252817.8237739505</v>
+        <v>358201.8164666984</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045619</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26426,10 @@
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>533.6918268873699</v>
+        <v>756.1546847085235</v>
       </c>
       <c r="F4" t="n">
-        <v>533.6918268873699</v>
+        <v>756.1546847085235</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826023</v>
@@ -26439,7 +26441,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
@@ -26451,13 +26453,13 @@
         <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="O4" t="n">
-        <v>533.6918268873699</v>
+        <v>756.1546847085237</v>
       </c>
       <c r="P4" t="n">
-        <v>533.6918268873699</v>
+        <v>756.1546847085235</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22709.82244350702</v>
+        <v>-22709.82244350709</v>
       </c>
       <c r="C6" t="n">
-        <v>200989.8761405379</v>
+        <v>200989.8761405378</v>
       </c>
       <c r="D6" t="n">
         <v>200989.8761405378</v>
       </c>
       <c r="E6" t="n">
-        <v>199457.0716074559</v>
+        <v>135514.632727913</v>
       </c>
       <c r="F6" t="n">
-        <v>209628.0682079121</v>
+        <v>286180.386299661</v>
       </c>
       <c r="G6" t="n">
-        <v>145387.7005568961</v>
+        <v>274357.3683303976</v>
       </c>
       <c r="H6" t="n">
         <v>303447.1775030053</v>
@@ -26543,25 +26545,25 @@
         <v>303447.1775030053</v>
       </c>
       <c r="J6" t="n">
-        <v>128795.8287852992</v>
+        <v>128795.8287852991</v>
       </c>
       <c r="K6" t="n">
         <v>303447.1775030053</v>
       </c>
       <c r="L6" t="n">
-        <v>303447.1775030052</v>
+        <v>303447.1775030053</v>
       </c>
       <c r="M6" t="n">
-        <v>294958.0957996645</v>
+        <v>177696.0891673145</v>
       </c>
       <c r="N6" t="n">
         <v>303447.1775030053</v>
       </c>
       <c r="O6" t="n">
-        <v>209628.0682079121</v>
+        <v>286180.386299661</v>
       </c>
       <c r="P6" t="n">
-        <v>209628.0682079121</v>
+        <v>286180.3862996611</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>367.2261030860415</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>328.833030588585</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27436,7 +27438,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>52.01701577190892</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>124.358989813076</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>369.8422500230728</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27676,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.2261030860415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>48.19697732171632</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27856,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>187.708804878765</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,10 +27915,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>370.2548715022045</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>48.19697732171639</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28813,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28965,7 +28967,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -34708,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O2" t="n">
         <v>585.1784344521124</v>
-      </c>
-      <c r="O2" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
         <v>667.515206607857</v>
@@ -34787,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>347.9676668794095</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P3" t="n">
         <v>667.515206607857</v>
@@ -34945,10 +34947,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O5" t="n">
         <v>585.1784344521124</v>
-      </c>
-      <c r="O5" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794094</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>345.0097498941946</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35182,10 +35184,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="O8" t="n">
         <v>585.1784344521124</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35416,22 +35418,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097205</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>651.9316575406119</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>313.9028777775458</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35653,22 +35655,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>651.931657540612</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O15" t="n">
-        <v>313.9028777775458</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35975,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1015.482873487266</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>205.9191540463134</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>109.7971848772035</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,16 +36372,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.29017329324</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>289.066705720913</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1050.672356668189</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>187.4796750234296</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>-1.0912429034652e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>753.9218057523904</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37394,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P36" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37558,13 +37560,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,13 +37633,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>212.2804580932203</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>287.5759351912247</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37941,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>212.2804580932203</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>259.3095102562284</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>187.4796750234299</v>
       </c>
       <c r="M45" t="n">
-        <v>132.1968875947121</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38178,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1762744.98527224</v>
+        <v>1762138.897643343</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074005</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797147</v>
+        <v>606553.2040797165</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6173712.322428568</v>
+        <v>6173712.322428569</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54.81047169401717</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -673,13 +673,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>158.4573142730619</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8834167598883</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -898,16 +898,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>63.91879806533807</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>245.6749552534301</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>35.20092700998597</v>
+        <v>131.996999652747</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>243.8418820985349</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>425.6947108137263</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>13.99728392830462</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>10.1507312021306</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>247.7868469212788</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>7.264602967362454</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1593,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>102.2146311366282</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>12.11553319608741</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1627,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>145.4261460119205</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>129.7139627068455</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2289,7 +2289,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2298,16 +2298,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.5141406214763</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2538,10 +2538,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>234.1486472602376</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>131.5141848153389</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34318456170566</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3006,10 +3006,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3189,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>35.75633396116255</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.10461178738937</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>109.1426757626845</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016035</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117663</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3681,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998958</v>
+        <v>122.9742767430612</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3757,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>213.7984441674444</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>203.7350166437373</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>3.423392126084805</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3994,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>145.4261460119205</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>361.3716269746323</v>
       </c>
     </row>
     <row r="45">
@@ -4155,7 +4155,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.9739924675</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1382.412671899186</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="C2" t="n">
-        <v>1348.310603123013</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.441222337862</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E2" t="n">
-        <v>882.6664774961569</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>454.7990479053647</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4339,13 +4339,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N2" t="n">
         <v>714.2412710704069</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719776</v>
@@ -4369,13 +4369,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2265.205371842461</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X2" t="n">
-        <v>1846.062908421772</v>
+        <v>2509.187882677752</v>
       </c>
       <c r="Y2" t="n">
-        <v>1437.776784721425</v>
+        <v>2504.942163017809</v>
       </c>
     </row>
     <row r="3">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>794.0196728252577</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C4" t="n">
-        <v>794.0196728252577</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1415.517618276922</v>
+        <v>793.6783655277644</v>
       </c>
       <c r="C5" t="n">
-        <v>1350.953175786681</v>
+        <v>355.5358927111877</v>
       </c>
       <c r="D5" t="n">
-        <v>915.0433909611256</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E5" t="n">
-        <v>481.2686461194208</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4579,7 +4579,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4600,19 +4600,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X5" t="n">
-        <v>1846.062908421772</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1437.776784721425</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>1006.821064952619</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>1006.821064952619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1006.821064952619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1006.821064952619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1006.821064952619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1006.821064952619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1667.661119494397</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>2328.501174036176</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>2670.060826431428</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4749,13 +4749,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2634.504334502149</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="U7" t="n">
         <v>2356.071333755254</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>791.4099871095558</v>
+        <v>977.6515424412072</v>
       </c>
       <c r="C8" t="n">
-        <v>353.2675142929791</v>
+        <v>943.5494736650346</v>
       </c>
       <c r="D8" t="n">
-        <v>106.9625828803175</v>
+        <v>911.6800928798832</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4810,22 +4810,22 @@
         <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>714.2412710704069</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4837,19 +4837,19 @@
         <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2449.993599304466</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2449.993599304466</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>2045.1381447155</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1625.99568129481</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1217.709557594464</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T10" t="n">
-        <v>2634.504334502149</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="11">
@@ -5035,58 +5035,58 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171368</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K11" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L11" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.631590390883</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.36257382733</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397637</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231033</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189628</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>4688.504965942684</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>4429.282663259701</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>4178.992918894773</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>3774.137464305806</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>3354.995000885117</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,25 +5114,25 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
         <v>1099.098144071247</v>
@@ -5144,16 +5144,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8461154418378</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C13" t="n">
-        <v>609.2844039250627</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4064111265855</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E13" t="n">
-        <v>436.0684283312698</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F13" t="n">
-        <v>259.361374293026</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885368</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885368</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2283.891072803477</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2005.458072056582</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>1718.502563927013</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1446.476159513304</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1201.084404846717</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="Y13" t="n">
-        <v>973.664734160825</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2520.409306699863</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C14" t="n">
-        <v>2082.266833883286</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.357049057731</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.582304216026</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F14" t="n">
-        <v>784.7148746252335</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>383.3170432484974</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K14" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L14" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M14" t="n">
-        <v>1038.631590390883</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.36257382733</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397637</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231033</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189628</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>4688.504965942684</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U14" t="n">
-        <v>4541.609868960946</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V14" t="n">
-        <v>4178.992918894773</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W14" t="n">
-        <v>3774.137464305806</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X14" t="n">
-        <v>3354.995000885117</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y14" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,28 +5351,28 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
         <v>1099.098144071247</v>
@@ -5381,16 +5381,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1075.290341150174</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C16" t="n">
-        <v>902.7286296333992</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D16" t="n">
-        <v>736.8506368349219</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E16" t="n">
-        <v>567.0926330856591</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F16" t="n">
-        <v>390.3855790474154</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G16" t="n">
-        <v>224.794304073243</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5463,25 +5463,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2551.18834051965</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T16" t="n">
-        <v>2305.308894098105</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U16" t="n">
-        <v>2026.87589335121</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V16" t="n">
-        <v>1739.920385221641</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W16" t="n">
-        <v>1739.920385221641</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.528630555053</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y16" t="n">
-        <v>1267.108959869161</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="17">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1656.801388721157</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5758,46 +5758,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M21" t="n">
-        <v>1300.985674363279</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3435.538389938438</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>3262.976678421663</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>3097.098685623185</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>2927.340681873923</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>2750.633627835679</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>2585.042352861507</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.38282354235</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U22" t="n">
-        <v>4408.070376373911</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V22" t="n">
-        <v>4121.114868244342</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>3849.088463830633</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>3849.088463830633</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>3627.357008657425</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5995,13 +5995,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
         <v>3569.079287993933</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3475.865925220631</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K24" t="n">
-        <v>3475.865925220631</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L24" t="n">
-        <v>3475.865925220631</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M24" t="n">
-        <v>3475.865925220631</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N24" t="n">
-        <v>4709.693196780938</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O24" t="n">
-        <v>4709.693196780938</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
-        <v>4709.693196780938</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3346.878440713113</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>3174.316729196338</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>3008.438736397861</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>2838.680732648598</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.973678610354</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5094.802844496297</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>4848.923398074752</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>4570.490397327858</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>4283.534889198289</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>4011.50848478458</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X25" t="n">
-        <v>3766.116730117992</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>3538.697059432101</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L26" t="n">
-        <v>2412.031452783383</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>3569.079287993933</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
         <v>3569.079287993933</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3575.440564248063</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>3402.878852731288</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>3237.000859932811</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>3067.242856183548</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>2890.535802145304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>5077.485521609701</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>4799.052520862807</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V28" t="n">
-        <v>4512.097012733238</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W28" t="n">
-        <v>4240.070608319529</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X28" t="n">
-        <v>3994.678853652942</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>3767.25918296705</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3205.876241053795</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>3033.31452953702</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>2867.436536738543</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>2697.67853298928</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>2520.971478951036</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>4953.800644836978</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>4707.921198415434</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>4429.488197668539</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>4142.53268953897</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>3870.506285125261</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>3625.114530458674</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>3397.694859772782</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6706,22 +6706,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>1021.773653488281</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>620.5788526445006</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>443.8717986062568</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>278.2805236320845</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>138.378349322459</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6940,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O36" t="n">
-        <v>1116.062450089081</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7180,19 +7180,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.279291740943</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
         <v>5113.042013538981</v>
@@ -7250,22 +7250,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
         <v>1107.588885023173</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882657</v>
+        <v>1092.659051657332</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365882</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674048</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7362,22 +7362,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.363958244297</v>
+        <v>2594.704009018972</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497402</v>
+        <v>2316.271008272077</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367832</v>
+        <v>2029.315500142507</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954124</v>
+        <v>1757.289095728799</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.557290287536</v>
+        <v>1511.897341062211</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601644</v>
+        <v>1284.47767037632</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2447.237176554639</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>2009.094703738062</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1573.184918912507</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>1139.410174070802</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>711.5427444800098</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>310.1449131032737</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171368</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>529.0247867717716</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K41" t="n">
-        <v>1363.37507872995</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L41" t="n">
-        <v>2438.435044982809</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M41" t="n">
-        <v>2438.435044982809</v>
+        <v>1207.785655143938</v>
       </c>
       <c r="N41" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O41" t="n">
-        <v>3313.696305150693</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>4142.00617998409</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>4468.437738815723</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U41" t="n">
-        <v>4468.437738815723</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="V41" t="n">
-        <v>4105.820788749549</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W41" t="n">
-        <v>3700.965334160583</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X41" t="n">
-        <v>3281.822870739893</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2873.536747039547</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,7 +7484,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
         <v>119.8337724793113</v>
@@ -7493,19 +7493,19 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>444.3920974455236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>444.3920974455236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>444.3920974455236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>444.3920974455236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>444.3920974455236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
         <v>1099.098144071247</v>
@@ -7514,16 +7514,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8461154418378</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C43" t="n">
-        <v>609.2844039250627</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D43" t="n">
-        <v>605.8264320805326</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E43" t="n">
-        <v>436.0684283312698</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F43" t="n">
         <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>1718.502563927013</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1446.476159513304</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.084404846717</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>973.664734160825</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2520.409306699863</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.266833883286</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.357049057731</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.582304216026</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F44" t="n">
-        <v>784.7148746252335</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G44" t="n">
-        <v>383.3170432484974</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171368</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K44" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L44" t="n">
-        <v>1168.830065571713</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M44" t="n">
-        <v>2325.877900782264</v>
+        <v>1207.785655143938</v>
       </c>
       <c r="N44" t="n">
-        <v>3451.608884218711</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O44" t="n">
-        <v>4431.788550789018</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>4688.504965942684</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>4541.609868960946</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U44" t="n">
-        <v>4541.609868960946</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V44" t="n">
-        <v>4178.992918894773</v>
+        <v>3846.598486066564</v>
       </c>
       <c r="W44" t="n">
-        <v>3774.137464305806</v>
+        <v>3441.743031477597</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.995000885117</v>
+        <v>3022.600568056908</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.70887718477</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,28 +7721,28 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>279.3749775920493</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>279.3749775920493</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>279.3749775920493</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>279.3749775920493</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
         <v>1099.098144071247</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1084.16831070541</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>911.6065991886354</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>745.7286063901581</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E46" t="n">
-        <v>575.9706026408953</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F46" t="n">
-        <v>399.2635486026515</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G46" t="n">
-        <v>233.6722736284792</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885368</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7833,25 +7833,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2551.18834051965</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T46" t="n">
-        <v>2307.780267320155</v>
+        <v>2674.873217292374</v>
       </c>
       <c r="U46" t="n">
-        <v>2307.780267320155</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V46" t="n">
-        <v>2020.824759190585</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W46" t="n">
-        <v>1748.798354776877</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X46" t="n">
-        <v>1503.406600110289</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.986929424398</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8157,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8227,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>345.0097498941946</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8458,25 +8458,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>954.4055465374038</v>
+        <v>954.405546537402</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>954.4055465374038</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>775.7508307391754</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9652,7 +9652,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9716,7 +9716,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>289.066705720913</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1050.672356668189</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10126,16 +10126,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10369,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10603,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10840,10 +10840,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>884.1022829978629</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11302,10 +11302,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
@@ -11314,10 +11314,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>259.3095102562284</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>411.8858435779281</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>111.2039336442329</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>122.9308428424046</v>
       </c>
     </row>
     <row r="14">
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>411.4732220987969</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>111.2039336442328</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>8.789189859683773</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.631333357556542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>35.15749310933379</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>111.4236523045828</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>52.01701577190886</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>58.91774794908558</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473397</v>
+        <v>120.4463752142681</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>72.44040884377151</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>155.2557639217744</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>160.7958207444077</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>72.44040884377128</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>42.83163548871079</v>
       </c>
     </row>
     <row r="45">
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>2.446659489829244</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>506423.2577632631</v>
+        <v>506423.2577632629</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>540029.0237407862</v>
+        <v>540029.0237407861</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>540029.0237407861</v>
+        <v>540029.0237407862</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>540029.0237407861</v>
+        <v>540029.023740786</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>540029.0237407862</v>
+        <v>540029.0237407861</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>506423.2577632631</v>
+        <v>506423.257763263</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506423.2577632632</v>
+        <v>506423.2577632629</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.806920546</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.806920546</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="D2" t="n">
         <v>388706.8069205461</v>
       </c>
       <c r="E2" t="n">
-        <v>358201.8164666983</v>
+        <v>358201.8164666982</v>
       </c>
       <c r="F2" t="n">
-        <v>358201.8164666982</v>
+        <v>358201.8164666981</v>
       </c>
       <c r="G2" t="n">
         <v>381971.7484995805</v>
@@ -26343,7 +26343,7 @@
         <v>381971.7484995804</v>
       </c>
       <c r="L2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="M2" t="n">
         <v>381971.7484995804</v>
@@ -26355,7 +26355,7 @@
         <v>358201.8164666982</v>
       </c>
       <c r="P2" t="n">
-        <v>358201.8164666984</v>
+        <v>358201.8164666982</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.753571748</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260779</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356908</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>756.1546847085235</v>
+        <v>756.1546847085233</v>
       </c>
       <c r="F4" t="n">
-        <v>756.1546847085235</v>
+        <v>756.1546847085234</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826023</v>
@@ -26441,7 +26441,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
@@ -26456,10 +26456,10 @@
         <v>806.3323907826024</v>
       </c>
       <c r="O4" t="n">
-        <v>756.1546847085237</v>
+        <v>756.1546847085233</v>
       </c>
       <c r="P4" t="n">
-        <v>756.1546847085235</v>
+        <v>756.1546847085233</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22709.82244350709</v>
+        <v>-22709.82244350696</v>
       </c>
       <c r="C6" t="n">
         <v>200989.8761405378</v>
@@ -26530,40 +26530,40 @@
         <v>200989.8761405378</v>
       </c>
       <c r="E6" t="n">
-        <v>135514.632727913</v>
+        <v>135409.4431056584</v>
       </c>
       <c r="F6" t="n">
-        <v>286180.386299661</v>
+        <v>286075.1966774062</v>
       </c>
       <c r="G6" t="n">
-        <v>274357.3683303976</v>
+        <v>274334.1439910148</v>
       </c>
       <c r="H6" t="n">
-        <v>303447.1775030053</v>
+        <v>303423.9531636226</v>
       </c>
       <c r="I6" t="n">
-        <v>303447.1775030053</v>
+        <v>303423.9531636226</v>
       </c>
       <c r="J6" t="n">
-        <v>128795.8287852991</v>
+        <v>128772.6044459165</v>
       </c>
       <c r="K6" t="n">
-        <v>303447.1775030053</v>
+        <v>303423.9531636226</v>
       </c>
       <c r="L6" t="n">
-        <v>303447.1775030053</v>
+        <v>303423.9531636225</v>
       </c>
       <c r="M6" t="n">
-        <v>177696.0891673145</v>
+        <v>177672.8648279319</v>
       </c>
       <c r="N6" t="n">
-        <v>303447.1775030053</v>
+        <v>303423.9531636226</v>
       </c>
       <c r="O6" t="n">
-        <v>286180.386299661</v>
+        <v>286075.1966774063</v>
       </c>
       <c r="P6" t="n">
-        <v>286180.3862996611</v>
+        <v>286075.1966774063</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.611034877814</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990743</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.611034877814</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.611034877814</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990743</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.2261030860415</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>256.4937245134205</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.01701577190892</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27618,16 +27618,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>369.8422500230728</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>185.8757317238698</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>208.2197249473433</v>
+        <v>111.4236523045822</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>187.708804878765</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>3.742286579561437</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>229.4233680290247</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30383,7 +30383,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -34707,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34947,10 +34947,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>345.0097498941946</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35178,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35418,7 +35418,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>954.4055465374038</v>
+        <v>954.405546537402</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35655,13 +35655,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>954.4055465374038</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>775.7508307391754</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36372,7 +36372,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458546</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.29017329324</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>289.066705720913</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1050.672356668189</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36767,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37089,10 +37089,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37323,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37548,7 +37548,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37560,10 +37560,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>884.1022829978629</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38022,22 +38022,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>1125.268238207156</v>
       </c>
       <c r="N44" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>259.3095102562284</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
